--- a/biology/Médecine/Charles_Kellaway/Charles_Kellaway.xlsx
+++ b/biology/Médecine/Charles_Kellaway/Charles_Kellaway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Kellaway était un médecin et chercheur australien, né le 16 janvier 1889 et mort le 13 décembre 1952.
 </t>
@@ -513,18 +525,163 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
-Kellaway est né au presbytère attaché à la vieille cathédrale St James de Melbourne[1]. Il est éduqué à la maison par son père, prêtre anglican, jusqu'à ses 11 ans. Il suit ensuite une éducation secondaire à la Caulfield Grammar School et à la Melbourne Church of England Grammar School, deux pensionnats privés anglicans de la région. 
-Il suit ensuite des études de médecine à l'université de Melbourne dont il est diplômé en 1913[1].
-Première guerre mondiale
-Kellaway s'engage en novembre 1914 dans les corps médicaux de l'armée australienne et sert en Europe avec le rang de capitaine, recevant une promotion en 1918. En 1918, il est rattaché à l'Australian Flying Corps et rencontre Henry Hallett Dale, sous la direction de qui il travaille sur l'anoxie[1].
-Recherche sur les serpents venimeux
-En 1927, à l'instigation de Neil Hamilton Fairley, un important programme de recherche sur les serpents venimeux d'Australie est mis en place. Kellaway, en collaboration avec Fairley, Holden et Fannie Eleanor Williams, travaille sur les morsures de serpents, notamment du genre Elapidae, et le développement d'antivenins. 
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kellaway est né au presbytère attaché à la vieille cathédrale St James de Melbourne. Il est éduqué à la maison par son père, prêtre anglican, jusqu'à ses 11 ans. Il suit ensuite une éducation secondaire à la Caulfield Grammar School et à la Melbourne Church of England Grammar School, deux pensionnats privés anglicans de la région. 
+Il suit ensuite des études de médecine à l'université de Melbourne dont il est diplômé en 1913.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Première guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kellaway s'engage en novembre 1914 dans les corps médicaux de l'armée australienne et sert en Europe avec le rang de capitaine, recevant une promotion en 1918. En 1918, il est rattaché à l'Australian Flying Corps et rencontre Henry Hallett Dale, sous la direction de qui il travaille sur l'anoxie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recherche sur les serpents venimeux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1927, à l'instigation de Neil Hamilton Fairley, un important programme de recherche sur les serpents venimeux d'Australie est mis en place. Kellaway, en collaboration avec Fairley, Holden et Fannie Eleanor Williams, travaille sur les morsures de serpents, notamment du genre Elapidae, et le développement d'antivenins. 
 Kellaway s'intéresse ensuite aux effets des venins sur l'hémodynamique, et aux réactions allergiques qu'ils suscitent, y compris l'anaphylaxie.
-Deuxième guerre mondiale
-Pendant la deuxième guerre mondiale, Kellaway, désormais scientifique reconnu internationalement, sert comme officier de liaison scientifique avec l'armée australienne et voyage dans les pays du Commonwealth et aux États-Unis pour encourager la coopération médicale et scientifique inter-alliée.
-Dernières années
-En 1943, il reçoit un poste de directeur scientifique aux laboratoires Wellcome, et y supervise le développement de traitements contre la malaria et la bilharziose. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Deuxième guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la deuxième guerre mondiale, Kellaway, désormais scientifique reconnu internationalement, sert comme officier de liaison scientifique avec l'armée australienne et voyage dans les pays du Commonwealth et aux États-Unis pour encourager la coopération médicale et scientifique inter-alliée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Kellaway</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dernières années</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1943, il reçoit un poste de directeur scientifique aux laboratoires Wellcome, et y supervise le développement de traitements contre la malaria et la bilharziose. 
 En 1951, il est diagnostiqué d'un cancer du poumon, et en meurt deux ans plus tard.
 </t>
         </is>
